--- a/Ontologies/central_mountains.xlsx
+++ b/Ontologies/central_mountains.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="1053">
   <si>
     <t>Mountain Range</t>
   </si>
@@ -1573,13 +1573,1618 @@
   </si>
   <si>
     <t>休与之山</t>
+  </si>
+  <si>
+    <t>Mount Drumbell</t>
+  </si>
+  <si>
+    <t>钟鼓之山</t>
+  </si>
+  <si>
+    <t>Mount Motherinlawmerry</t>
+  </si>
+  <si>
+    <t>姑媱之山</t>
+  </si>
+  <si>
+    <t>Mount Bitter</t>
+  </si>
+  <si>
+    <t>1284733f-f18d-45ac-bc13-42cc0b41dc77</t>
+  </si>
+  <si>
+    <t>30e53b8b-1225-44d7-9308-eefd5da595e2</t>
+  </si>
+  <si>
+    <t>mountain-grease 山膏</t>
+  </si>
+  <si>
+    <t>scarlet as cinnabar fire 赤若丹火</t>
+  </si>
+  <si>
+    <t>good at cursing folk 善詈</t>
+  </si>
+  <si>
+    <t>Mount Wallspan</t>
+  </si>
+  <si>
+    <t>堵山</t>
+  </si>
+  <si>
+    <t>Mount Loosebog</t>
+  </si>
+  <si>
+    <t>放皋之山</t>
+  </si>
+  <si>
+    <t>River Bright</t>
+  </si>
+  <si>
+    <t>明水</t>
+  </si>
+  <si>
+    <t>d4bf2294-48aa-4ba1-8ae0-e10977bb3128</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q102857</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q17146557</t>
+  </si>
+  <si>
+    <t>4dbea34e-9ab7-4c2b-91ed-61210746cdfc</t>
+  </si>
+  <si>
+    <t>streaky-streak 文文</t>
+  </si>
+  <si>
+    <t>bee 蜂</t>
+  </si>
+  <si>
+    <t>tree forks 枝尾</t>
+  </si>
+  <si>
+    <t>back-to-front tongue 反舌</t>
+  </si>
+  <si>
+    <t>good at hollering 善呼</t>
+  </si>
+  <si>
+    <t>piglet 逐</t>
+  </si>
+  <si>
+    <t>Mount Bigbitter</t>
+  </si>
+  <si>
+    <t>大𩇵之山</t>
+  </si>
+  <si>
+    <t>River Mad</t>
+  </si>
+  <si>
+    <t>狂水</t>
+  </si>
+  <si>
+    <t>0035ef6b-fed9-442e-88f3-bc5c310b2d7d</t>
+  </si>
+  <si>
+    <t>997034a2-94f4-4dcb-ab2c-05e38d918b6f</t>
+  </si>
+  <si>
+    <t>5de5f1dc-20d4-4506-b6c1-24561b85446e</t>
+  </si>
+  <si>
+    <t>three-footed turtles 三足龟</t>
+  </si>
+  <si>
+    <t>prevent serious illness 无大疾</t>
+  </si>
+  <si>
+    <t>cure swelling 已肿</t>
+  </si>
+  <si>
+    <t>Mount Halfstone</t>
+  </si>
+  <si>
+    <t>半石之山</t>
+  </si>
+  <si>
+    <t>River Comlinger</t>
+  </si>
+  <si>
+    <t>来需之水</t>
+  </si>
+  <si>
+    <t>78d26f7d-521b-48a3-ab26-0e69f0a48d1b</t>
+  </si>
+  <si>
+    <t>b5f65aea-df8f-44d6-87d6-013c4427b28c</t>
+  </si>
+  <si>
+    <t>River Comelinger</t>
+  </si>
+  <si>
+    <t>dc4e4fe1-0e43-444f-bb0d-fa7aff3992ce</t>
+  </si>
+  <si>
+    <t>89799402-e9dd-4858-8313-6c85651509b9</t>
+  </si>
+  <si>
+    <t>River Join</t>
+  </si>
+  <si>
+    <t>1da28556-742d-46e7-8102-3105dab1060d</t>
+  </si>
+  <si>
+    <t>Reel-fish 鯩鱼</t>
+  </si>
+  <si>
+    <t>perch 鲋</t>
+  </si>
+  <si>
+    <t>black markings 黑文</t>
+  </si>
+  <si>
+    <t>prevent nodding off 不睡</t>
+  </si>
+  <si>
+    <t>合水</t>
+  </si>
+  <si>
+    <t>perch-fish 鰧鱼</t>
+  </si>
+  <si>
+    <t>perch 鳜</t>
+  </si>
+  <si>
+    <t>bright blue 苍文</t>
+  </si>
+  <si>
+    <t>bright blue markings 苍文</t>
+  </si>
+  <si>
+    <t>prevent growths 不痈</t>
+  </si>
+  <si>
+    <t>treat tumor oozing pus 为瘘</t>
+  </si>
+  <si>
+    <t>lives in river eddies 居逵</t>
+  </si>
+  <si>
+    <t>Mount Younghouse</t>
+  </si>
+  <si>
+    <t>少室之山</t>
+  </si>
+  <si>
+    <t>River Rest</t>
+  </si>
+  <si>
+    <t>休水</t>
+  </si>
+  <si>
+    <t>d3765b1c-b65f-456d-bddf-aed412a5d3b6</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q2340126</t>
+  </si>
+  <si>
+    <t>2d75668e-8f94-4941-973a-ed17d0349e96</t>
+  </si>
+  <si>
+    <t>54bd3b2c-620c-4f90-805e-6473b3cd4eb9</t>
+  </si>
+  <si>
+    <t>catfish 䱱鱼</t>
+  </si>
+  <si>
+    <t>lemur 𥂕蜼</t>
+  </si>
+  <si>
+    <t>long claws,feet turn inwards 长距，足白而对</t>
+  </si>
+  <si>
+    <t>prevent malign forces 无蛊疾</t>
+  </si>
+  <si>
+    <t>against weapons 御兵</t>
+  </si>
+  <si>
+    <t>Mount Greathouse</t>
+  </si>
+  <si>
+    <t>泰室之山</t>
+  </si>
+  <si>
+    <t>Mount Explain</t>
+  </si>
+  <si>
+    <t>讲山</t>
+  </si>
+  <si>
+    <t>Mount Collarbridge</t>
+  </si>
+  <si>
+    <t>婴梁之山</t>
+  </si>
+  <si>
+    <t>Mount Floatplay</t>
+  </si>
+  <si>
+    <t>浮戏之山</t>
+  </si>
+  <si>
+    <t>River Loop</t>
+  </si>
+  <si>
+    <t>汜水</t>
+  </si>
+  <si>
+    <t>Mount Youngravine</t>
+  </si>
+  <si>
+    <t>少陉之山</t>
+  </si>
+  <si>
+    <t>River Tooltrouble</t>
+  </si>
+  <si>
+    <t>器难之水</t>
+  </si>
+  <si>
+    <t>River Serve</t>
+  </si>
+  <si>
+    <t>役水</t>
+  </si>
+  <si>
+    <t>Mount Grand</t>
+  </si>
+  <si>
+    <t>太山</t>
+  </si>
+  <si>
+    <t>River Grand</t>
+  </si>
+  <si>
+    <t>太水</t>
+  </si>
+  <si>
+    <t>River Present</t>
+  </si>
+  <si>
+    <t>承水</t>
+  </si>
+  <si>
+    <t>Mount Tip</t>
+  </si>
+  <si>
+    <t>末山</t>
+  </si>
+  <si>
+    <t>River Tip</t>
+  </si>
+  <si>
+    <t>末水</t>
+  </si>
+  <si>
+    <t>Mount Serve</t>
+  </si>
+  <si>
+    <t>役山</t>
+  </si>
+  <si>
+    <t>Mount Haste</t>
+  </si>
+  <si>
+    <t>敏山</t>
+  </si>
+  <si>
+    <t>Mount Bigblueroanhorse</t>
+  </si>
+  <si>
+    <t>大騩之山</t>
+  </si>
+  <si>
+    <t>Thorn Mountain</t>
+  </si>
+  <si>
+    <t>荆山</t>
+  </si>
+  <si>
+    <t>Mount Shine</t>
+  </si>
+  <si>
+    <t>景山</t>
+  </si>
+  <si>
+    <t>River Fishhawk</t>
+  </si>
+  <si>
+    <t>雎水</t>
+  </si>
+  <si>
+    <t>the Long River</t>
+  </si>
+  <si>
+    <t>江</t>
+  </si>
+  <si>
+    <t>patterned fish 文鱼</t>
+  </si>
+  <si>
+    <t>Mount Thorn</t>
+  </si>
+  <si>
+    <t>River Brocade</t>
+  </si>
+  <si>
+    <t>漳水</t>
+  </si>
+  <si>
+    <t>grunting-ox 牦牛</t>
+  </si>
+  <si>
+    <t>panther 豹</t>
+  </si>
+  <si>
+    <t>tiger 虎</t>
+  </si>
+  <si>
+    <t>shark-like fish 鲛鱼</t>
+  </si>
+  <si>
+    <t>great elk 闾麋</t>
+  </si>
+  <si>
+    <t>Mount Highhorse</t>
+  </si>
+  <si>
+    <t>骄山</t>
+  </si>
+  <si>
+    <t>Mount Girlstool</t>
+  </si>
+  <si>
+    <t>女几之山</t>
+  </si>
+  <si>
+    <t>leopard 豹</t>
+  </si>
+  <si>
+    <t>great stag 麖</t>
+  </si>
+  <si>
+    <t>musk deer 麂</t>
+  </si>
+  <si>
+    <t>white pheasant 白鷮</t>
+  </si>
+  <si>
+    <t>pheasant 翟</t>
+  </si>
+  <si>
+    <t>poisonfeather bird 鸩</t>
+  </si>
+  <si>
+    <t>Mount Helpall</t>
+  </si>
+  <si>
+    <t>宜诸之山</t>
+  </si>
+  <si>
+    <t>River Risk</t>
+  </si>
+  <si>
+    <t>洈水</t>
+  </si>
+  <si>
+    <t>漳</t>
+  </si>
+  <si>
+    <t>Mount Silkthread</t>
+  </si>
+  <si>
+    <t>纶山</t>
+  </si>
+  <si>
+    <t>elk 闾</t>
+  </si>
+  <si>
+    <t>large deer 麈</t>
+  </si>
+  <si>
+    <t>antelope 麢</t>
+  </si>
+  <si>
+    <t>hoofed hare 㚟</t>
+  </si>
+  <si>
+    <t>Mount Landkneel</t>
+  </si>
+  <si>
+    <t>陆陒之山</t>
+  </si>
+  <si>
+    <t>Mount Glare</t>
+  </si>
+  <si>
+    <t>光山</t>
+  </si>
+  <si>
+    <t>Mount Forked</t>
+  </si>
+  <si>
+    <t>岐山</t>
+  </si>
+  <si>
+    <t>Mount Copper</t>
+  </si>
+  <si>
+    <t>铜山</t>
+  </si>
+  <si>
+    <t>leopard 犳</t>
+  </si>
+  <si>
+    <t>Mount Beauty</t>
+  </si>
+  <si>
+    <t>美山</t>
+  </si>
+  <si>
+    <t>rhinocero 兕牛</t>
+  </si>
+  <si>
+    <t>elk 闾麈</t>
+  </si>
+  <si>
+    <t>large deer 豕鹿</t>
+  </si>
+  <si>
+    <t>Mount Biglofty</t>
+  </si>
+  <si>
+    <t>大尧之山</t>
+  </si>
+  <si>
+    <t>Mount Divinepower</t>
+  </si>
+  <si>
+    <t>灵山</t>
+  </si>
+  <si>
+    <t>Mount Dragon</t>
+  </si>
+  <si>
+    <t>龙山</t>
+  </si>
+  <si>
+    <t>Mount Balance</t>
+  </si>
+  <si>
+    <t>衡山</t>
+  </si>
+  <si>
+    <t>Mount Stone</t>
+  </si>
+  <si>
+    <t>石山</t>
+  </si>
+  <si>
+    <t>Mount Accord</t>
+  </si>
+  <si>
+    <t>若山</t>
+  </si>
+  <si>
+    <t>Mount Swine</t>
+  </si>
+  <si>
+    <t>彘山</t>
+  </si>
+  <si>
+    <t>Mount Jade</t>
+  </si>
+  <si>
+    <t>玉山</t>
+  </si>
+  <si>
+    <t>Mount Bawl</t>
+  </si>
+  <si>
+    <t>灌山</t>
+  </si>
+  <si>
+    <t>River Stately</t>
+  </si>
+  <si>
+    <t>郁水</t>
+  </si>
+  <si>
+    <t>base Mount Jade</t>
+  </si>
+  <si>
+    <t>潜于其下</t>
+  </si>
+  <si>
+    <t>summit Mount Jade</t>
+  </si>
+  <si>
+    <t>Mount Kindlylift</t>
+  </si>
+  <si>
+    <t>仁举之山</t>
+  </si>
+  <si>
+    <t>Mount Leaderthrive</t>
+  </si>
+  <si>
+    <t>师每之山</t>
+  </si>
+  <si>
+    <t>Mount Lutedrum</t>
+  </si>
+  <si>
+    <t>琴鼓之山</t>
+  </si>
+  <si>
+    <t>rhinocero 白犀</t>
+  </si>
+  <si>
+    <t>Gem Mountain</t>
+  </si>
+  <si>
+    <t>岷山</t>
+  </si>
+  <si>
+    <t>洛水</t>
+  </si>
+  <si>
+    <t>Mount Gem</t>
+  </si>
+  <si>
+    <t>sea</t>
+  </si>
+  <si>
+    <t>海</t>
+  </si>
+  <si>
+    <t>Excellent turtle 良龟</t>
+  </si>
+  <si>
+    <t>alligator 鼍</t>
+  </si>
+  <si>
+    <t>rhinocero 犀</t>
+  </si>
+  <si>
+    <t>elephant 象</t>
+  </si>
+  <si>
+    <t>huge buffalo 夔牛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white pheasant scarlet and gold mountain pheasant 翰鷩 </t>
+  </si>
+  <si>
+    <t>Mount Col</t>
+  </si>
+  <si>
+    <t>崃山</t>
+  </si>
+  <si>
+    <t>the Great Long River</t>
+  </si>
+  <si>
+    <t>大江</t>
+  </si>
+  <si>
+    <t>Mount Lair</t>
+  </si>
+  <si>
+    <t>崌山</t>
+  </si>
+  <si>
+    <t>strange snake 怪蛇</t>
+  </si>
+  <si>
+    <t>force-fish 䲀鱼</t>
+  </si>
+  <si>
+    <t>rhinoceros 犀兕</t>
+  </si>
+  <si>
+    <t>699d0420-5c4c-44cb-8cac-77eb6df60a79</t>
+  </si>
+  <si>
+    <t>scarlet</t>
+  </si>
+  <si>
+    <t>05024a1f-af7c-40ab-a0e1-fab39e0d8d63</t>
+  </si>
+  <si>
+    <t>steal-lard 窃脂</t>
+  </si>
+  <si>
+    <t>Owl 鸮</t>
+  </si>
+  <si>
+    <t>against fire 御火</t>
+  </si>
+  <si>
+    <t>Mount Highbridge</t>
+  </si>
+  <si>
+    <t>高梁之山</t>
+  </si>
+  <si>
+    <t>Mount Snake</t>
+  </si>
+  <si>
+    <t>蛇山</t>
+  </si>
+  <si>
+    <t>367871ac-3055-46ee-8e90-19dc407dd955</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q4016291</t>
+  </si>
+  <si>
+    <t>3d281900-07c7-4d0e-8953-2f96ddf9b783</t>
+  </si>
+  <si>
+    <t>jackal-wolf 𤜣狼</t>
+  </si>
+  <si>
+    <t>fox 狐</t>
+  </si>
+  <si>
+    <t>long ears 长耳</t>
+  </si>
+  <si>
+    <t>warfare 国内有兵</t>
+  </si>
+  <si>
+    <t>Mount Cauldron</t>
+  </si>
+  <si>
+    <t>鬲山</t>
+  </si>
+  <si>
+    <t>River Reedperish</t>
+  </si>
+  <si>
+    <t>蒲𪈘之水</t>
+  </si>
+  <si>
+    <t>brown bear 罴</t>
+  </si>
+  <si>
+    <t>black bear 熊</t>
+  </si>
+  <si>
+    <t>long-tailed monkey 猨蜼</t>
+  </si>
+  <si>
+    <t>Mount Comersunny</t>
+  </si>
+  <si>
+    <t>隅阳之山</t>
+  </si>
+  <si>
+    <t>River Dawdle</t>
+  </si>
+  <si>
+    <t>徐之水</t>
+  </si>
+  <si>
+    <t>River Abate</t>
+  </si>
+  <si>
+    <t>减水</t>
+  </si>
+  <si>
+    <t>Mount Hooksilkreel</t>
+  </si>
+  <si>
+    <t>勾檷之山</t>
+  </si>
+  <si>
+    <t>Mount Windrain</t>
+  </si>
+  <si>
+    <t>风雨之山</t>
+  </si>
+  <si>
+    <t>River Declaremy</t>
+  </si>
+  <si>
+    <t>宣余之水</t>
+  </si>
+  <si>
+    <t>snake 蛇</t>
+  </si>
+  <si>
+    <t>pig 豕</t>
+  </si>
+  <si>
+    <t>deer 鹿</t>
+  </si>
+  <si>
+    <t>Mount Blackbear</t>
+  </si>
+  <si>
+    <t>熊山</t>
+  </si>
+  <si>
+    <t>Mount Clothbean</t>
+  </si>
+  <si>
+    <t>葛山</t>
+  </si>
+  <si>
+    <t>Mount Worthleap</t>
+  </si>
+  <si>
+    <t>贾超之山</t>
+  </si>
+  <si>
+    <t>Central Mountains Part10</t>
+  </si>
+  <si>
+    <t>中次十经</t>
+  </si>
+  <si>
+    <t>Mount Headsunny</t>
+  </si>
+  <si>
+    <t>首阳之山</t>
+  </si>
+  <si>
+    <t>Mount Tigertail</t>
+  </si>
+  <si>
+    <t>虎尾之山</t>
+  </si>
+  <si>
+    <t>Mount Girthgaudy</t>
+  </si>
+  <si>
+    <t>繁缋之山</t>
+  </si>
+  <si>
+    <t>Mount Darestone</t>
+  </si>
+  <si>
+    <t>勇石之山</t>
+  </si>
+  <si>
+    <t>Mount Gobackeyot</t>
+  </si>
+  <si>
+    <t>复州之山</t>
+  </si>
+  <si>
+    <t>2a2e0dc9-04b6-4fe7-9d47-c892c57a6ea1</t>
+  </si>
+  <si>
+    <t>a5b50167-4514-4724-bf3a-9efeaaa1971b</t>
+  </si>
+  <si>
+    <t>tiptoe-heel 跂踵</t>
+  </si>
+  <si>
+    <t>pig 彘尾</t>
+  </si>
+  <si>
+    <t>one leg 一足</t>
+  </si>
+  <si>
+    <t>great plague 其国大疫</t>
+  </si>
+  <si>
+    <t>楮山</t>
+  </si>
+  <si>
+    <t>Mount Againsource</t>
+  </si>
+  <si>
+    <t>又原之山</t>
+  </si>
+  <si>
+    <t>mynah bird 雊鹆</t>
+  </si>
+  <si>
+    <t>Mount Drip</t>
+  </si>
+  <si>
+    <t>涿山</t>
+  </si>
+  <si>
+    <t>Mount Trey</t>
+  </si>
+  <si>
+    <t>丙山</t>
+  </si>
+  <si>
+    <t>Mount Wingwatch</t>
+  </si>
+  <si>
+    <t>翼望之山</t>
+  </si>
+  <si>
+    <t>River Grant</t>
+  </si>
+  <si>
+    <t>湍水</t>
+  </si>
+  <si>
+    <t>River Rushing</t>
+  </si>
+  <si>
+    <t>River Ferry</t>
+  </si>
+  <si>
+    <t>济</t>
+  </si>
+  <si>
+    <t>贶水</t>
+  </si>
+  <si>
+    <t>River Han</t>
+  </si>
+  <si>
+    <t>汉</t>
+  </si>
+  <si>
+    <t>alligator 蛟</t>
+  </si>
+  <si>
+    <t>River Dance</t>
+  </si>
+  <si>
+    <t>潕水</t>
+  </si>
+  <si>
+    <t>River Dash</t>
+  </si>
+  <si>
+    <t>荥</t>
+  </si>
+  <si>
+    <t>elk 麋</t>
+  </si>
+  <si>
+    <t>Mount Godsgranary</t>
+  </si>
+  <si>
+    <t>帝囷之山</t>
+  </si>
+  <si>
+    <t>River Godsgranary</t>
+  </si>
+  <si>
+    <t>帝囷之水</t>
+  </si>
+  <si>
+    <t>summit Mount Godsgranary</t>
+  </si>
+  <si>
+    <t>base Mount Godsgranary</t>
+  </si>
+  <si>
+    <t>潜于帝囷之山</t>
+  </si>
+  <si>
+    <t>humming snake 鸣蛇</t>
+  </si>
+  <si>
+    <t>Mount Look</t>
+  </si>
+  <si>
+    <t>视山</t>
+  </si>
+  <si>
+    <t>Mount Fore</t>
+  </si>
+  <si>
+    <t>前山</t>
+  </si>
+  <si>
+    <t>Mount Fertile</t>
+  </si>
+  <si>
+    <t>丰山</t>
+  </si>
+  <si>
+    <t>73889602-42b7-4995-bd20-d9de2ba183ce</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q102470</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q943</t>
+  </si>
+  <si>
+    <t>aae0fe58-aba6-44ab-b56c-fb96a53c5ea0</t>
+  </si>
+  <si>
+    <t>choir-blend 雍和</t>
+  </si>
+  <si>
+    <t>ape 蝯</t>
+  </si>
+  <si>
+    <t>panic 国有大恐</t>
+  </si>
+  <si>
+    <t>Mount Harebed</t>
+  </si>
+  <si>
+    <t>兔床之山</t>
+  </si>
+  <si>
+    <t>Mount Skin</t>
+  </si>
+  <si>
+    <t>皮山</t>
+  </si>
+  <si>
+    <t>Mount Jaspergreenjade</t>
+  </si>
+  <si>
+    <t>瑶碧之山</t>
+  </si>
+  <si>
+    <t>03db99dd-8ac5-489e-a89f-8f2f73850d51</t>
+  </si>
+  <si>
+    <t>b9b8829c-e2de-47a7-9e75-c7d2c0edbbf5</t>
+  </si>
+  <si>
+    <t>Pheasant 雉</t>
+  </si>
+  <si>
+    <t>feeds on bugs 恒食蜚</t>
+  </si>
+  <si>
+    <t>Mount Limbhappen</t>
+  </si>
+  <si>
+    <t>支离之山</t>
+  </si>
+  <si>
+    <t>济水</t>
+  </si>
+  <si>
+    <t>91de0982-70b6-4444-8a8e-e7faa33905c6</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q2495957</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q81895</t>
+  </si>
+  <si>
+    <t>1557670e-e9dc-4245-ae4e-c0e7c8507d15</t>
+  </si>
+  <si>
+    <t>collar-spoon 婴勺</t>
+  </si>
+  <si>
+    <t>magpie 鹊</t>
+  </si>
+  <si>
+    <t>spoon 其尾若勺</t>
+  </si>
+  <si>
+    <t>scarlet muzzle赤喙</t>
+  </si>
+  <si>
+    <t>yak 㸲牛</t>
+  </si>
+  <si>
+    <t>Mount Bulkcarve</t>
+  </si>
+  <si>
+    <t>Mount Agonyvein</t>
+  </si>
+  <si>
+    <t>堇理之山</t>
+  </si>
+  <si>
+    <t>祑𥮐之山</t>
+  </si>
+  <si>
+    <t>b3a70c51-c8e7-44a1-81db-16c514812385</t>
+  </si>
+  <si>
+    <t>f3e3c17e-4bec-47a3-ad67-c739ef3faa99</t>
+  </si>
+  <si>
+    <t>green-plough 青耕</t>
+  </si>
+  <si>
+    <t>its call 其鸣自叫 sing</t>
+  </si>
+  <si>
+    <t>against plague 御疫</t>
+  </si>
+  <si>
+    <t>Mount Vergewheel</t>
+  </si>
+  <si>
+    <t>依轱之山</t>
+  </si>
+  <si>
+    <t>0c142ced-79bc-4c8f-b2c5-f53406f45ca3</t>
+  </si>
+  <si>
+    <t>d7aa5e90-83db-45b6-8a98-5e59cb4bde03</t>
+  </si>
+  <si>
+    <t>scaly-cur 獜</t>
+  </si>
+  <si>
+    <t>dog 犬</t>
+  </si>
+  <si>
+    <t>tiger claws, a shell 虎爪 有甲</t>
+  </si>
+  <si>
+    <t>good at leaping 善𩧫𤘝</t>
+  </si>
+  <si>
+    <t>prevent lunacy 不风</t>
+  </si>
+  <si>
+    <t>Mount Trailer</t>
+  </si>
+  <si>
+    <t>即谷之山</t>
+  </si>
+  <si>
+    <t>Mount Reachvale</t>
+  </si>
+  <si>
+    <t>dark leopard 玄豹</t>
+  </si>
+  <si>
+    <t>great elk 闾</t>
+  </si>
+  <si>
+    <t>Mount Chicken</t>
+  </si>
+  <si>
+    <t>鸡山</t>
+  </si>
+  <si>
+    <t>Mount Highfore</t>
+  </si>
+  <si>
+    <t>高前之山</t>
+  </si>
+  <si>
+    <t>Mount Swimplay</t>
+  </si>
+  <si>
+    <t>游戏之山</t>
+  </si>
+  <si>
+    <t>从山</t>
+  </si>
+  <si>
+    <t>River Trailer</t>
+  </si>
+  <si>
+    <t>从水</t>
+  </si>
+  <si>
+    <t>summit Mount Trailer</t>
+  </si>
+  <si>
+    <t>base Mount Trailer</t>
+  </si>
+  <si>
+    <t>潜于其下从山</t>
+  </si>
+  <si>
+    <t>a9d1fffe-2448-4064-8ee1-043e6972ced4</t>
+  </si>
+  <si>
+    <t>db42348f-602f-4065-bbec-6b6ea7ca0274</t>
+  </si>
+  <si>
+    <t>three-footed turtles 三足鳖</t>
+  </si>
+  <si>
+    <t>branching tail 枝尾</t>
+  </si>
+  <si>
+    <t>prevent malign forces 无蛊疫</t>
+  </si>
+  <si>
+    <t>Mount Collarblock</t>
+  </si>
+  <si>
+    <t>婴䂩之山</t>
+  </si>
+  <si>
+    <t>Mount Birdnet</t>
+  </si>
+  <si>
+    <t>毕山</t>
+  </si>
+  <si>
+    <t>River Godsgarden</t>
+  </si>
+  <si>
+    <t>帝苑之水</t>
+  </si>
+  <si>
+    <t>River Look</t>
+  </si>
+  <si>
+    <t>视</t>
+  </si>
+  <si>
+    <t>Mount Happyhorse</t>
+  </si>
+  <si>
+    <t>乐马之山</t>
+  </si>
+  <si>
+    <t>a6aa9542-ac11-4a27-a25d-098ee89a2a3c</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q6120</t>
+  </si>
+  <si>
+    <t>8c2ec56e-2e7e-4dd5-b14b-a6df52ba09d9</t>
+  </si>
+  <si>
+    <t>the mess 𤟑</t>
+  </si>
+  <si>
+    <t>hedgehog 汇</t>
+  </si>
+  <si>
+    <t>scarlet as cinnabar fire 丹火</t>
+  </si>
+  <si>
+    <t>Mount Horseindigo</t>
+  </si>
+  <si>
+    <t>葴山</t>
+  </si>
+  <si>
+    <t>视水</t>
+  </si>
+  <si>
+    <t>River You</t>
+  </si>
+  <si>
+    <t>汝水</t>
+  </si>
+  <si>
+    <t>otter 颉</t>
+  </si>
+  <si>
+    <t>Mount Collar</t>
+  </si>
+  <si>
+    <t>婴山</t>
+  </si>
+  <si>
+    <t>Mount Tigerhead</t>
+  </si>
+  <si>
+    <t>虎首之山</t>
+  </si>
+  <si>
+    <t>Mount Collarbutt</t>
+  </si>
+  <si>
+    <t>婴侯之山</t>
+  </si>
+  <si>
+    <t>Mount Bigcook</t>
+  </si>
+  <si>
+    <t>大孰之山</t>
+  </si>
+  <si>
+    <t>Mount Low</t>
+  </si>
+  <si>
+    <t>卑山</t>
+  </si>
+  <si>
+    <t>Mount Relygreat</t>
+  </si>
+  <si>
+    <t>倚帝之山</t>
+  </si>
+  <si>
+    <t>31d0f058-1f69-41f5-a73c-e9d99097d970</t>
+  </si>
+  <si>
+    <t>Mount Relygreatgod</t>
+  </si>
+  <si>
+    <t>762b7fbe-2149-4cb4-a1fb-26c3d4c80b80</t>
+  </si>
+  <si>
+    <t>monky-like 狙如</t>
+  </si>
+  <si>
+    <t>white-eared rat 鼣鼠</t>
+  </si>
+  <si>
+    <t>great war 其国有大兵</t>
+  </si>
+  <si>
+    <t>Mount Shewhale</t>
+  </si>
+  <si>
+    <t>鲵山</t>
+  </si>
+  <si>
+    <t>River Shewhale</t>
+  </si>
+  <si>
+    <t>鲵水</t>
+  </si>
+  <si>
+    <t>summit Mount Shewhale</t>
+  </si>
+  <si>
+    <t>base Mount Shewhale</t>
+  </si>
+  <si>
+    <t>潜于其下鲵山</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mount Nice </t>
+  </si>
+  <si>
+    <t>雅山</t>
+  </si>
+  <si>
+    <t>River Lapping</t>
+  </si>
+  <si>
+    <t>澧水</t>
+  </si>
+  <si>
+    <t>large fish 大鱼</t>
+  </si>
+  <si>
+    <t>Mount Declare</t>
+  </si>
+  <si>
+    <t>宣山</t>
+  </si>
+  <si>
+    <t>River Ripple</t>
+  </si>
+  <si>
+    <t>沦水</t>
+  </si>
+  <si>
+    <t>mynah 鹦鹉</t>
+  </si>
+  <si>
+    <t>Mount Womanwarm</t>
+  </si>
+  <si>
+    <t>妪山</t>
+  </si>
+  <si>
+    <t>262d4097-455f-4b88-b86c-e3dd0eab441e</t>
+  </si>
+  <si>
+    <t>1bab4e67-be02-4e57-adcc-a7a3977166bd</t>
+  </si>
+  <si>
+    <t>wild desert dog 膜大</t>
+  </si>
+  <si>
+    <t>scarlet muzzle 赤喙</t>
+  </si>
+  <si>
+    <t>catch fire 其邑有火</t>
+  </si>
+  <si>
+    <t>cur-reach 𤝻即</t>
+  </si>
+  <si>
+    <t>Mount Brilliant</t>
+  </si>
+  <si>
+    <t>章山</t>
+  </si>
+  <si>
+    <t>River Bog</t>
+  </si>
+  <si>
+    <t>皋水</t>
+  </si>
+  <si>
+    <t>Mount Biglimb</t>
+  </si>
+  <si>
+    <t>大支之山</t>
+  </si>
+  <si>
+    <t>Mount Hoardcry</t>
+  </si>
+  <si>
+    <t>区吴之山</t>
+  </si>
+  <si>
+    <t>Mount Soundchest</t>
+  </si>
+  <si>
+    <t>声匈之山</t>
+  </si>
+  <si>
+    <t>Mount Heelbowl</t>
+  </si>
+  <si>
+    <t>踵臼之山</t>
+  </si>
+  <si>
+    <t>Mount Stagestone</t>
+  </si>
+  <si>
+    <t>历石之山</t>
+  </si>
+  <si>
+    <t>ab41cb3c-bd7d-44bb-9974-4f10ee0154f1</t>
+  </si>
+  <si>
+    <t>Mount Stagrstone</t>
+  </si>
+  <si>
+    <t>2d5d2821-1be2-4d80-b259-e8afbd6094a9</t>
+  </si>
+  <si>
+    <t>bridge-drain 梁渠</t>
+  </si>
+  <si>
+    <t>tiger claws 虎爪</t>
+  </si>
+  <si>
+    <t>Mount Seek</t>
+  </si>
+  <si>
+    <t>求山</t>
+  </si>
+  <si>
+    <t>River Seek</t>
+  </si>
+  <si>
+    <t>求水</t>
+  </si>
+  <si>
+    <t>summit Mount Seek</t>
+  </si>
+  <si>
+    <t>base Mount Seek</t>
+  </si>
+  <si>
+    <t>潜于其下求山</t>
+  </si>
+  <si>
+    <t>Mount Deucesunny</t>
+  </si>
+  <si>
+    <t>丑阳之山</t>
+  </si>
+  <si>
+    <t>e6705863-78b3-4601-a506-040f7fa60f05</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q388450</t>
+  </si>
+  <si>
+    <t>5c6c108e-49e6-45ac-aa9c-46b213dd477a</t>
+  </si>
+  <si>
+    <t>crow 乌</t>
+  </si>
+  <si>
+    <t>just-me 䳅鵌</t>
+  </si>
+  <si>
+    <t>Mount Nook</t>
+  </si>
+  <si>
+    <t>奧山</t>
+  </si>
+  <si>
+    <t>River Nook</t>
+  </si>
+  <si>
+    <t>奥水</t>
+  </si>
+  <si>
+    <t>奥山</t>
+  </si>
+  <si>
+    <t>Mount Yoke</t>
+  </si>
+  <si>
+    <t>服山</t>
+  </si>
+  <si>
+    <t>Mount Murk</t>
+  </si>
+  <si>
+    <t>杳山</t>
+  </si>
+  <si>
+    <t>Mount Stool</t>
+  </si>
+  <si>
+    <t>几山</t>
+  </si>
+  <si>
+    <t>66e86fa2-d280-4132-89e0-1144d7b5593e</t>
+  </si>
+  <si>
+    <t>2105f318-efec-4424-a406-8030632ce636</t>
+  </si>
+  <si>
+    <t>boar 彘</t>
+  </si>
+  <si>
+    <t>knowing-boar 獜</t>
+  </si>
+  <si>
+    <t>typhoon 天下大风</t>
+  </si>
+  <si>
+    <t>Gushcourt Mountain</t>
+  </si>
+  <si>
+    <t>洞庭山</t>
+  </si>
+  <si>
+    <t>Mount Scriptchance</t>
+  </si>
+  <si>
+    <t>篇遇之山</t>
+  </si>
+  <si>
+    <t>Mount Cloud</t>
+  </si>
+  <si>
+    <t>云山</t>
+  </si>
+  <si>
+    <t>Mount Turtle</t>
+  </si>
+  <si>
+    <t>龟山</t>
+  </si>
+  <si>
+    <t>Mount Windlord</t>
+  </si>
+  <si>
+    <t>风伯之山</t>
+  </si>
+  <si>
+    <t>bird 鸟</t>
+  </si>
+  <si>
+    <t>animal 兽</t>
+  </si>
+  <si>
+    <t>Mount Manlyman</t>
+  </si>
+  <si>
+    <t>夫夫之山</t>
+  </si>
+  <si>
+    <t>Mount Gushcourt</t>
+  </si>
+  <si>
+    <t>洞庭之山</t>
+  </si>
+  <si>
+    <t>strange birds 怪鸟</t>
+  </si>
+  <si>
+    <t>Mount Tyrant</t>
+  </si>
+  <si>
+    <t>暴山</t>
+  </si>
+  <si>
+    <t>musk deer 𪊨</t>
+  </si>
+  <si>
+    <t>buzzard 就</t>
+  </si>
+  <si>
+    <t>Mount Reachpublic</t>
+  </si>
+  <si>
+    <t>即公之山</t>
+  </si>
+  <si>
+    <t>c9f54ffd-e474-4303-b24f-b87e089d246a</t>
+  </si>
+  <si>
+    <t>1765b2f2-0f67-422f-84c0-5740d02c1abd</t>
+  </si>
+  <si>
+    <t>buffalo-reptile 蛫</t>
+  </si>
+  <si>
+    <t>turtle 龟</t>
+  </si>
+  <si>
+    <t>Mount Lofty</t>
+  </si>
+  <si>
+    <t>尧山</t>
+  </si>
+  <si>
+    <t>Mount Longriverdrift</t>
+  </si>
+  <si>
+    <t>江浮之山</t>
+  </si>
+  <si>
+    <t>Mount Truehill</t>
+  </si>
+  <si>
+    <t>真陵之山</t>
+  </si>
+  <si>
+    <t>Mount Sunnygreatgod</t>
+  </si>
+  <si>
+    <t>阳帝之山</t>
+  </si>
+  <si>
+    <t>musk deer 麝</t>
+  </si>
+  <si>
+    <t>Mount Kindlingmulberry</t>
+  </si>
+  <si>
+    <t>柴桑之山</t>
+  </si>
+  <si>
+    <t>white snake 白蛇</t>
+  </si>
+  <si>
+    <t>flying snake 飞蛇</t>
+  </si>
+  <si>
+    <t>Mount Glorymy</t>
+  </si>
+  <si>
+    <t>荣余之山</t>
+  </si>
+  <si>
+    <t>strange reptile 怪虫</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1599,8 +3204,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1611,6 +3224,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -1651,10 +3269,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1689,9 +3308,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1968,19 +3600,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EB85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:EB286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" topLeftCell="S259" workbookViewId="0">
+      <selection activeCell="X286" sqref="X286"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.88671875" style="3" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="3"/>
     <col min="3" max="3" width="18.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="11.21875" style="3" customWidth="1"/>
     <col min="6" max="6" width="16.109375" style="3" customWidth="1"/>
     <col min="7" max="8" width="8.88671875" style="3"/>
@@ -1993,15 +3625,15 @@
     <col min="15" max="15" width="11.33203125" style="3" customWidth="1"/>
     <col min="16" max="16" width="8.88671875" style="3"/>
     <col min="17" max="17" width="36.44140625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="20.77734375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="23.6640625" style="3" customWidth="1"/>
     <col min="19" max="19" width="8.88671875" style="3"/>
-    <col min="20" max="20" width="15.77734375" style="3" customWidth="1"/>
-    <col min="21" max="21" width="8.88671875" style="3"/>
-    <col min="22" max="22" width="27.33203125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="21.21875" style="3" customWidth="1"/>
+    <col min="21" max="21" width="13.109375" style="3" customWidth="1"/>
+    <col min="22" max="22" width="48.5546875" style="3" customWidth="1"/>
     <col min="23" max="23" width="37.77734375" style="3" customWidth="1"/>
     <col min="24" max="24" width="15.77734375" style="3" customWidth="1"/>
     <col min="25" max="25" width="17" style="3" customWidth="1"/>
-    <col min="26" max="26" width="15.5546875" style="3" customWidth="1"/>
+    <col min="26" max="26" width="19.44140625" style="3" customWidth="1"/>
     <col min="27" max="27" width="37.33203125" style="3" customWidth="1"/>
     <col min="28" max="41" width="8.88671875" style="3"/>
     <col min="42" max="42" width="29.33203125" style="3" customWidth="1"/>
@@ -2012,22 +3644,29 @@
     <col min="49" max="49" width="34.33203125" style="3" customWidth="1"/>
     <col min="50" max="50" width="11" style="3" customWidth="1"/>
     <col min="51" max="51" width="36.33203125" style="3" customWidth="1"/>
-    <col min="52" max="62" width="8.88671875" style="3"/>
+    <col min="52" max="59" width="8.88671875" style="3"/>
+    <col min="60" max="60" width="36" style="3" bestFit="1" customWidth="1"/>
+    <col min="61" max="62" width="8.88671875" style="3"/>
     <col min="63" max="63" width="33.77734375" style="3" customWidth="1"/>
-    <col min="64" max="83" width="8.88671875" style="3"/>
+    <col min="64" max="66" width="8.88671875" style="3"/>
+    <col min="67" max="67" width="34.21875" style="3" customWidth="1"/>
+    <col min="68" max="68" width="11.6640625" style="3" customWidth="1"/>
+    <col min="69" max="72" width="8.88671875" style="3"/>
+    <col min="73" max="73" width="37" style="3" customWidth="1"/>
+    <col min="74" max="83" width="8.88671875" style="3"/>
     <col min="84" max="84" width="32.21875" style="3" customWidth="1"/>
     <col min="85" max="86" width="8.88671875" style="3"/>
     <col min="87" max="87" width="11.21875" style="3" customWidth="1"/>
     <col min="88" max="88" width="37.6640625" style="3" customWidth="1"/>
     <col min="89" max="89" width="8.88671875" style="3"/>
-    <col min="90" max="90" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="19.21875" style="3" customWidth="1"/>
     <col min="91" max="91" width="37.5546875" style="3" customWidth="1"/>
     <col min="92" max="92" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="93" max="98" width="8.88671875" style="3"/>
     <col min="99" max="99" width="35.33203125" style="3" customWidth="1"/>
     <col min="100" max="100" width="11.6640625" style="3" customWidth="1"/>
     <col min="101" max="101" width="35" style="3" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="25.21875" style="3" customWidth="1"/>
+    <col min="102" max="102" width="39" style="3" customWidth="1"/>
     <col min="103" max="103" width="8.88671875" style="3"/>
     <col min="104" max="104" width="11.44140625" style="3" customWidth="1"/>
     <col min="105" max="112" width="8.88671875" style="3"/>
@@ -2044,13 +3683,13 @@
     <col min="125" max="127" width="8.88671875" style="3"/>
     <col min="128" max="128" width="21.21875" style="3" customWidth="1"/>
     <col min="129" max="129" width="36.109375" style="3" customWidth="1"/>
-    <col min="130" max="130" width="14.33203125" style="3" customWidth="1"/>
+    <col min="130" max="130" width="16.21875" style="3" customWidth="1"/>
     <col min="131" max="131" width="34.88671875" style="3" customWidth="1"/>
     <col min="132" max="132" width="22.88671875" style="3" customWidth="1"/>
     <col min="133" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:132" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:132" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2448,7 +4087,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:132">
       <c r="A2" s="3" t="s">
         <v>101</v>
       </c>
@@ -2513,7 +4152,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:132">
       <c r="D3" s="3" t="s">
         <v>119</v>
       </c>
@@ -2536,7 +4175,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:132">
       <c r="D4" s="3" t="s">
         <v>123</v>
       </c>
@@ -2628,7 +4267,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:132">
       <c r="D5" s="3" t="s">
         <v>141</v>
       </c>
@@ -2651,7 +4290,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:132">
       <c r="D6" s="3" t="s">
         <v>143</v>
       </c>
@@ -2674,7 +4313,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:132">
       <c r="D7" s="3" t="s">
         <v>145</v>
       </c>
@@ -2697,7 +4336,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:132">
       <c r="D8" s="3" t="s">
         <v>147</v>
       </c>
@@ -2720,7 +4359,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:132">
       <c r="D9" s="3" t="s">
         <v>149</v>
       </c>
@@ -2743,7 +4382,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:132">
       <c r="D10" s="3" t="s">
         <v>151</v>
       </c>
@@ -2766,7 +4405,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:132">
       <c r="D11" s="3" t="s">
         <v>153</v>
       </c>
@@ -2789,7 +4428,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:132">
       <c r="D12" s="3" t="s">
         <v>155</v>
       </c>
@@ -2967,7 +4606,7 @@
       </c>
       <c r="EB12" s="5"/>
     </row>
-    <row r="13" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:132">
       <c r="D13" s="3" t="s">
         <v>170</v>
       </c>
@@ -3026,7 +4665,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:132">
       <c r="D14" s="3" t="s">
         <v>182</v>
       </c>
@@ -3049,7 +4688,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:132">
       <c r="D15" s="3" t="s">
         <v>184</v>
       </c>
@@ -3084,7 +4723,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:132">
       <c r="D16" s="3" t="s">
         <v>188</v>
       </c>
@@ -3107,7 +4746,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="17" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:132">
       <c r="A17" s="3" t="s">
         <v>192</v>
       </c>
@@ -3127,7 +4766,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:132">
       <c r="V18" s="3" t="s">
         <v>196</v>
       </c>
@@ -3135,7 +4774,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:132">
       <c r="D19" s="3" t="s">
         <v>199</v>
       </c>
@@ -3182,7 +4821,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:132">
       <c r="D20" s="3" t="s">
         <v>207</v>
       </c>
@@ -3205,7 +4844,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:132">
       <c r="D21" s="3" t="s">
         <v>209</v>
       </c>
@@ -3288,7 +4927,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:132">
       <c r="D22" s="3" t="s">
         <v>222</v>
       </c>
@@ -3389,7 +5028,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:132">
       <c r="D23" s="3" t="s">
         <v>238</v>
       </c>
@@ -3442,7 +5081,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:132">
       <c r="D24" s="3" t="s">
         <v>248</v>
       </c>
@@ -3489,7 +5128,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:132">
       <c r="D25" s="3" t="s">
         <v>252</v>
       </c>
@@ -3512,7 +5151,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="26" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:132">
       <c r="D26" s="3" t="s">
         <v>254</v>
       </c>
@@ -3592,7 +5231,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="27" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:132">
       <c r="A27" s="3" t="s">
         <v>266</v>
       </c>
@@ -3639,7 +5278,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="28" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:132">
       <c r="D28" s="3" t="s">
         <v>275</v>
       </c>
@@ -3692,7 +5331,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="29" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:132">
       <c r="V29" s="3" t="s">
         <v>286</v>
       </c>
@@ -3736,7 +5375,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="30" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:132">
       <c r="D30" s="3" t="s">
         <v>291</v>
       </c>
@@ -3816,7 +5455,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="31" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:132">
       <c r="D31" s="3" t="s">
         <v>302</v>
       </c>
@@ -3866,7 +5505,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="32" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:132">
       <c r="D32" s="3" t="s">
         <v>307</v>
       </c>
@@ -3913,7 +5552,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:130">
       <c r="A33" s="3" t="s">
         <v>312</v>
       </c>
@@ -3951,7 +5590,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="34" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:130">
       <c r="D34" s="3" t="s">
         <v>318</v>
       </c>
@@ -4025,7 +5664,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="35" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:130">
       <c r="D35" s="3" t="s">
         <v>327</v>
       </c>
@@ -4105,7 +5744,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="36" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:130">
       <c r="V36" s="3" t="s">
         <v>337</v>
       </c>
@@ -4134,7 +5773,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="37" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:130">
       <c r="D37" s="3" t="s">
         <v>341</v>
       </c>
@@ -4157,7 +5796,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="38" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:130">
       <c r="D38" s="3" t="s">
         <v>343</v>
       </c>
@@ -4210,7 +5849,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:130">
       <c r="D39" s="3" t="s">
         <v>348</v>
       </c>
@@ -4233,7 +5872,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="40" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:130">
       <c r="D40" s="3" t="s">
         <v>350</v>
       </c>
@@ -4289,7 +5928,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="41" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:130">
       <c r="D41" s="3" t="s">
         <v>355</v>
       </c>
@@ -4318,7 +5957,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:130">
       <c r="V42" s="3" t="s">
         <v>358</v>
       </c>
@@ -4326,7 +5965,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:130">
       <c r="V43" s="3" t="s">
         <v>359</v>
       </c>
@@ -4334,7 +5973,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="44" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:130">
       <c r="D44" s="3" t="s">
         <v>360</v>
       </c>
@@ -4384,7 +6023,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="45" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:130">
       <c r="A45" s="3" t="s">
         <v>101</v>
       </c>
@@ -4431,7 +6070,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="46" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:130">
       <c r="D46" s="3" t="s">
         <v>368</v>
       </c>
@@ -4454,7 +6093,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="47" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:130">
       <c r="D47" s="3" t="s">
         <v>377</v>
       </c>
@@ -4477,7 +6116,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="48" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:130">
       <c r="D48" s="3" t="s">
         <v>141</v>
       </c>
@@ -4500,7 +6139,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="49" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:129">
       <c r="D49" s="3" t="s">
         <v>379</v>
       </c>
@@ -4523,7 +6162,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:129">
       <c r="D50" s="3" t="s">
         <v>381</v>
       </c>
@@ -4546,7 +6185,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="51" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:129">
       <c r="D51" s="3" t="s">
         <v>383</v>
       </c>
@@ -4569,7 +6208,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="52" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:129">
       <c r="D52" s="3" t="s">
         <v>385</v>
       </c>
@@ -4592,7 +6231,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="53" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:129">
       <c r="D53" s="3" t="s">
         <v>387</v>
       </c>
@@ -4615,7 +6254,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="54" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:129">
       <c r="D54" s="3" t="s">
         <v>389</v>
       </c>
@@ -4638,7 +6277,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="55" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:129">
       <c r="D55" s="3" t="s">
         <v>391</v>
       </c>
@@ -4688,7 +6327,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="56" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:129">
       <c r="D56" s="3" t="s">
         <v>396</v>
       </c>
@@ -4735,7 +6374,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:129">
       <c r="N57" s="3" t="s">
         <v>400</v>
       </c>
@@ -4761,7 +6400,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="58" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:129">
       <c r="D58" s="3" t="s">
         <v>404</v>
       </c>
@@ -4808,7 +6447,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="59" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:129">
       <c r="D59" s="3" t="s">
         <v>408</v>
       </c>
@@ -4855,7 +6494,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:129">
       <c r="D60" s="3" t="s">
         <v>412</v>
       </c>
@@ -4878,7 +6517,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="61" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:129">
       <c r="A61" s="3" t="s">
         <v>414</v>
       </c>
@@ -4904,7 +6543,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="62" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:129">
       <c r="D62" s="3" t="s">
         <v>420</v>
       </c>
@@ -4927,7 +6566,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="63" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:129">
       <c r="D63" s="3" t="s">
         <v>422</v>
       </c>
@@ -5019,7 +6658,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="64" spans="1:129" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:129">
       <c r="N64" s="3" t="s">
         <v>438</v>
       </c>
@@ -5045,7 +6684,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="65" spans="4:131" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:131">
       <c r="D65" s="3" t="s">
         <v>442</v>
       </c>
@@ -5092,7 +6731,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="66" spans="4:131" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:131">
       <c r="N66" s="3" t="s">
         <v>186</v>
       </c>
@@ -5118,7 +6757,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="67" spans="4:131" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:131">
       <c r="D67" s="3" t="s">
         <v>446</v>
       </c>
@@ -5165,7 +6804,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="68" spans="4:131" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:131">
       <c r="N68" s="3" t="s">
         <v>450</v>
       </c>
@@ -5191,7 +6830,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="69" spans="4:131" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:131">
       <c r="D69" s="3" t="s">
         <v>452</v>
       </c>
@@ -5238,7 +6877,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="70" spans="4:131" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:131">
       <c r="N70" s="3" t="s">
         <v>456</v>
       </c>
@@ -5264,7 +6903,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="71" spans="4:131" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:131">
       <c r="D71" s="3" t="s">
         <v>460</v>
       </c>
@@ -5311,7 +6950,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="72" spans="4:131" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:131">
       <c r="D72" s="3" t="s">
         <v>464</v>
       </c>
@@ -5394,7 +7033,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="73" spans="4:131" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:131">
       <c r="D73" s="3" t="s">
         <v>476</v>
       </c>
@@ -5441,7 +7080,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="74" spans="4:131" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:131">
       <c r="D74" s="3" t="s">
         <v>478</v>
       </c>
@@ -5497,7 +7136,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="75" spans="4:131" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:131">
       <c r="N75" s="3" t="s">
         <v>440</v>
       </c>
@@ -5523,7 +7162,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="76" spans="4:131" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:131">
       <c r="D76" s="3" t="s">
         <v>482</v>
       </c>
@@ -5606,7 +7245,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="77" spans="4:131" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:131">
       <c r="D77" s="3" t="s">
         <v>495</v>
       </c>
@@ -5653,7 +7292,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="4:131" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:131">
       <c r="N78" s="3" t="s">
         <v>499</v>
       </c>
@@ -5679,7 +7318,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="79" spans="4:131" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:131">
       <c r="D79" s="3" t="s">
         <v>501</v>
       </c>
@@ -5732,7 +7371,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="4:131" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:131">
       <c r="V80" s="3" t="s">
         <v>358</v>
       </c>
@@ -5740,7 +7379,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="81" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:131">
       <c r="V81" s="3" t="s">
         <v>503</v>
       </c>
@@ -5748,7 +7387,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:131">
       <c r="D82" s="3" t="s">
         <v>506</v>
       </c>
@@ -5804,7 +7443,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="83" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:131">
       <c r="N83" s="3" t="s">
         <v>510</v>
       </c>
@@ -5830,7 +7469,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:131">
       <c r="N84" s="3" t="s">
         <v>512</v>
       </c>
@@ -5856,7 +7495,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="85" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:131">
       <c r="A85" s="3" t="s">
         <v>514</v>
       </c>
@@ -5870,8 +7509,5467 @@
         <v>517</v>
       </c>
     </row>
+    <row r="86" spans="1:131">
+      <c r="D86" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J86" s="3">
+        <v>300</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="87" spans="1:131">
+      <c r="D87" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J87" s="3">
+        <v>200</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="88" spans="1:131">
+      <c r="D88" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J88" s="3">
+        <v>20</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="V88" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="W88" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="X88" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z88" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="AA88" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="AP88" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="AQ88" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="DT88" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="DX88" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="DY88" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="89" spans="1:131">
+      <c r="D89" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J89" s="3">
+        <v>27</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="90" spans="1:131">
+      <c r="D90" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J90" s="3">
+        <v>52</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="N90" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="O90" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="P90" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q90" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="R90" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="S90" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="T90" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="U90" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="V90" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="W90" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="X90" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z90" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="AA90" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="CL90" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="CM90" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="CX90" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="DT90" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="DX90" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="DY90" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="91" spans="1:131">
+      <c r="D91" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J91" s="3">
+        <v>57</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="DO91" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="DP91" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="DX91" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="DY91" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="DZ91" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="EA91" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="92" spans="1:131">
+      <c r="D92" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J92" s="3">
+        <v>70</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="N92" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="O92" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="P92" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q92" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="R92" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="S92" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="T92" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="U92" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="V92" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="W92" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="X92" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z92" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="AA92" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="CX92" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="DP92" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="DX92" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="DY92" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="DZ92" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="EA92" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="93" spans="1:131">
+      <c r="N93" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="O93" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="P93" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q93" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="R93" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="S93" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="T93" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="U93" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="V93" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="W93" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="X93" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z93" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="AA93" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP93" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="AQ93" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="CI93" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="CJ93" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="CX93" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="DO93" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="DP93" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="DT93" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="DX93" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="DY93" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="DZ93" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="EA93" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="94" spans="1:131">
+      <c r="D94" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J94" s="3">
+        <v>50</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q94" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="BT94" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU94" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="CX94" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="DO94" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="DP94" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="DX94" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="DY94" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="DZ94" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="EA94" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="95" spans="1:131">
+      <c r="D95" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J95" s="3">
+        <v>30</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="96" spans="1:131">
+      <c r="D96" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J96" s="3">
+        <v>30</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="97" spans="1:130">
+      <c r="D97" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J97" s="3">
+        <v>30</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="98" spans="1:130">
+      <c r="D98" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J98" s="3">
+        <v>30</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="N98" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="O98" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="P98" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q98" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="R98" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="S98" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="T98" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="U98" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="99" spans="1:130">
+      <c r="D99" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J99" s="3">
+        <v>40</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="N99" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="O99" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="P99" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q99" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="R99" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="S99" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="T99" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="U99" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="100" spans="1:130">
+      <c r="D100" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J100" s="3">
+        <v>10</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="101" spans="1:130">
+      <c r="N101" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="102" spans="1:130">
+      <c r="D102" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J102" s="3">
+        <v>20</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="103" spans="1:130">
+      <c r="D103" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J103" s="3">
+        <v>25</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="N103" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="O103" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="P103" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q103" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="R103" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="S103" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="T103" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="U103" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="104" spans="1:130">
+      <c r="D104" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J104" s="3">
+        <v>35</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="105" spans="1:130">
+      <c r="D105" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J105" s="3">
+        <v>30</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="106" spans="1:130">
+      <c r="A106" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="N106" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="O106" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="P106" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q106" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="R106" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="S106" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="T106" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="U106" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="V106" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="X106" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="DZ106" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="107" spans="1:130">
+      <c r="D107" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J107" s="3">
+        <v>100</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="N107" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="O107" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="P107" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q107" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="R107" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="S107" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="T107" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="U107" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="V107" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="X107" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="108" spans="1:130">
+      <c r="V108" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="X108" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="109" spans="1:130">
+      <c r="V109" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="X109" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" spans="1:130">
+      <c r="V110" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="X110" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="DZ110" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="111" spans="1:130">
+      <c r="V111" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="X111" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="112" spans="1:130">
+      <c r="D112" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J112" s="3">
+        <v>150</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="L112" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="113" spans="4:24">
+      <c r="D113" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J113" s="3">
+        <v>120</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="V113" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="X113" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="4:24">
+      <c r="V114" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="X114" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="4:24">
+      <c r="V115" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="X115" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" spans="4:24">
+      <c r="V116" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="X116" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="117" spans="4:24">
+      <c r="V117" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="X117" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="118" spans="4:24">
+      <c r="V118" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="X118" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="119" spans="4:24">
+      <c r="V119" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="X119" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="120" spans="4:24">
+      <c r="V120" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="X120" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="121" spans="4:24">
+      <c r="D121" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J121" s="3">
+        <v>200</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="L121" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="N121" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="O121" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="P121" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q121" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="R121" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="S121" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="T121" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="U121" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="122" spans="4:24">
+      <c r="D122" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J122" s="3">
+        <v>200</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="L122" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="V122" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="X122" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="123" spans="4:24">
+      <c r="V123" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="X123" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="124" spans="4:24">
+      <c r="V124" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="X124" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="125" spans="4:24">
+      <c r="V125" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="X125" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="126" spans="4:24">
+      <c r="D126" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J126" s="3">
+        <v>200</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="L126" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="127" spans="4:24">
+      <c r="D127" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J127" s="3">
+        <v>130</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="L127" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="128" spans="4:24">
+      <c r="D128" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J128" s="3">
+        <v>150</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="L128" s="3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="129" spans="4:24">
+      <c r="D129" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J129" s="3">
+        <v>130</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="L129" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="V129" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="X129" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="130" spans="4:24">
+      <c r="D130" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J130" s="3">
+        <v>100</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="L130" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="V130" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="X130" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="131" spans="4:24">
+      <c r="V131" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="X131" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="132" spans="4:24">
+      <c r="V132" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="X132" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="133" spans="4:24">
+      <c r="D133" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J133" s="3">
+        <v>100</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="L133" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="V133" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="X133" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="134" spans="4:24">
+      <c r="V134" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="X134" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="135" spans="4:24">
+      <c r="V135" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="X135" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="136" spans="4:24">
+      <c r="X136" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="137" spans="4:24">
+      <c r="D137" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J137" s="3">
+        <v>300</v>
+      </c>
+      <c r="K137" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="L137" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="138" spans="4:24">
+      <c r="D138" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J138" s="3">
+        <v>70</v>
+      </c>
+      <c r="K138" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="L138" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="139" spans="4:24">
+      <c r="D139" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J139" s="3">
+        <v>50</v>
+      </c>
+      <c r="K139" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="L139" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="140" spans="4:24">
+      <c r="D140" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J140" s="3">
+        <v>70</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="L140" s="3" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="141" spans="4:24">
+      <c r="D141" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J141" s="3">
+        <v>120</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="L141" s="3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="142" spans="4:24">
+      <c r="D142" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J142" s="3">
+        <v>120</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="L142" s="3" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="143" spans="4:24">
+      <c r="D143" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J143" s="3">
+        <v>150</v>
+      </c>
+      <c r="K143" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="L143" s="3" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="144" spans="4:24">
+      <c r="D144" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J144" s="3">
+        <v>70</v>
+      </c>
+      <c r="K144" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="L144" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="N144" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="O144" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="R144" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="S144" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="T144" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="U144" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="145" spans="1:130">
+      <c r="D145" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J145" s="3">
+        <v>150</v>
+      </c>
+      <c r="K145" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="L145" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="146" spans="1:130">
+      <c r="D146" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J146" s="3">
+        <v>50</v>
+      </c>
+      <c r="K146" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="L146" s="3" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="147" spans="1:130">
+      <c r="D147" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J147" s="3">
+        <v>200</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="L147" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="V147" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="X147" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="148" spans="1:130">
+      <c r="V148" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="X148" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="149" spans="1:130">
+      <c r="V149" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="X149" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="150" spans="1:130">
+      <c r="V150" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="X150" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="151" spans="1:130">
+      <c r="A151" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="N151" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="O151" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="P151" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q151" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="R151" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="S151" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="T151" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="U151" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="V151" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="X151" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="152" spans="1:130">
+      <c r="V152" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="X152" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="153" spans="1:130">
+      <c r="D153" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J153" s="3">
+        <v>300</v>
+      </c>
+      <c r="K153" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="L153" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="N153" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="O153" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="P153" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q153" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="R153" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="S153" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="T153" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="U153" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="V153" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="X153" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="154" spans="1:130">
+      <c r="V154" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="X154" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="155" spans="1:130">
+      <c r="V155" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="X155" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="156" spans="1:130">
+      <c r="V156" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="X156" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="157" spans="1:130">
+      <c r="V157" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="X157" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="158" spans="1:130">
+      <c r="V158" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="X158" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="159" spans="1:130">
+      <c r="D159" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J159" s="3">
+        <v>140</v>
+      </c>
+      <c r="K159" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="L159" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="N159" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="O159" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="P159" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q159" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="R159" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="S159" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="T159" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="U159" s="3" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="160" spans="1:130">
+      <c r="D160" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J160" s="3">
+        <v>150</v>
+      </c>
+      <c r="K160" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="L160" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="N160" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="O160" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="P160" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q160" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="R160" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="S160" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="T160" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="U160" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="V160" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="X160" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="DZ160" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="161" spans="4:132">
+      <c r="V161" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="X161" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="DZ161" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="162" spans="4:132">
+      <c r="V162" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="X162" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="163" spans="4:132">
+      <c r="V163" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="X163" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="164" spans="4:132">
+      <c r="V164" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="X164" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="165" spans="4:132">
+      <c r="V165" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="W165" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="X165" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z165" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA165" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="AP165" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="AQ165" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG165" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH165" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="DO165" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="DX165" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="DY165" s="3" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="166" spans="4:132">
+      <c r="D166" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J166" s="3">
+        <v>300</v>
+      </c>
+      <c r="K166" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="L166" s="3" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="167" spans="4:132">
+      <c r="D167" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J167" s="3">
+        <v>400</v>
+      </c>
+      <c r="K167" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="L167" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="V167" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="W167" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="X167" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z167" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="AA167" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="CI167" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="CJ167" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="CX167" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="DX167" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="DY167" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="EB167" s="3" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="168" spans="4:132">
+      <c r="D168" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J168" s="3">
+        <v>500</v>
+      </c>
+      <c r="K168" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="L168" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="N168" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="O168" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="P168" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q168" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="R168" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="S168" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="T168" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="U168" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="V168" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="X168" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="169" spans="4:132">
+      <c r="V169" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="X169" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="170" spans="4:132">
+      <c r="V170" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="X170" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="171" spans="4:132">
+      <c r="V171" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="X171" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="172" spans="4:132">
+      <c r="V172" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="X172" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="173" spans="4:132">
+      <c r="D173" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J173" s="3">
+        <v>300</v>
+      </c>
+      <c r="K173" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="L173" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="N173" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="O173" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="P173" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q173" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="R173" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="S173" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="T173" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="U173" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="174" spans="4:132">
+      <c r="D174" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J174" s="3">
+        <v>250</v>
+      </c>
+      <c r="K174" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="L174" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="N174" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="O174" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="P174" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q174" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="R174" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="S174" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="T174" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="U174" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="175" spans="4:132">
+      <c r="D175" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J175" s="3">
+        <v>300</v>
+      </c>
+      <c r="K175" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="L175" s="3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="176" spans="4:132">
+      <c r="D176" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J176" s="3">
+        <v>150</v>
+      </c>
+      <c r="K176" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="L176" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="N176" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="O176" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="P176" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q176" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="R176" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="S176" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="T176" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="U176" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="V176" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="X176" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="DZ176" s="3" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24">
+      <c r="V177" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="X177" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24">
+      <c r="V178" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="X178" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24">
+      <c r="V179" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="X179" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24">
+      <c r="V180" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="X180" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24">
+      <c r="V181" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="X181" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="182" spans="1:24">
+      <c r="D182" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J182" s="3">
+        <v>200</v>
+      </c>
+      <c r="K182" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="L182" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="V182" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="X182" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24">
+      <c r="V183" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="X183" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24">
+      <c r="V184" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="X184" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24">
+      <c r="V185" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="X185" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24">
+      <c r="V186" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="X186" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24">
+      <c r="D187" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J187" s="3">
+        <v>150</v>
+      </c>
+      <c r="K187" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="L187" s="3" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24">
+      <c r="D188" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J188" s="3">
+        <v>140</v>
+      </c>
+      <c r="K188" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="L188" s="3" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24">
+      <c r="D189" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I189" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J189" s="3">
+        <v>200</v>
+      </c>
+      <c r="K189" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="L189" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="V189" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="X189" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24">
+      <c r="V190" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="X190" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24">
+      <c r="D191" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I191" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J191" s="3">
+        <v>170</v>
+      </c>
+      <c r="K191" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="L191" s="3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24">
+      <c r="A192" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="193" spans="1:132">
+      <c r="D193" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I193" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J193" s="3">
+        <v>50</v>
+      </c>
+      <c r="K193" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="L193" s="3" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="194" spans="1:132">
+      <c r="D194" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I194" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J194" s="3">
+        <v>50</v>
+      </c>
+      <c r="K194" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="L194" s="3" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="195" spans="1:132">
+      <c r="D195" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="H195" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I195" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J195" s="3">
+        <v>20</v>
+      </c>
+      <c r="K195" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="L195" s="3" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="196" spans="1:132">
+      <c r="D196" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="H196" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I196" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J196" s="3">
+        <v>20</v>
+      </c>
+      <c r="K196" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="L196" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="V196" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="W196" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="X196" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z196" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA196" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="CL196" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="CM196" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="CX196" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="DX196" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="DY196" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="EB196" s="3" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="197" spans="1:132">
+      <c r="D197" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="H197" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I197" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J197" s="3">
+        <v>30</v>
+      </c>
+      <c r="K197" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="L197" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="198" spans="1:132">
+      <c r="D198" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I198" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J198" s="3">
+        <v>20</v>
+      </c>
+      <c r="K198" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="L198" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="V198" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="X198" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="199" spans="1:132">
+      <c r="D199" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="H199" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I199" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J199" s="3">
+        <v>50</v>
+      </c>
+      <c r="K199" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="L199" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="200" spans="1:132">
+      <c r="D200" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="H200" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I200" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J200" s="3">
+        <v>70</v>
+      </c>
+      <c r="K200" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="L200" s="3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="201" spans="1:132">
+      <c r="A201" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="N201" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="O201" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="P201" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q201" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="R201" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="S201" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="T201" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="U201" s="3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="202" spans="1:132">
+      <c r="N202" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="O202" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="P202" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q202" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="R202" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="S202" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="T202" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="U202" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="V202" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="X202" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="DZ202" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="203" spans="1:132">
+      <c r="D203" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I203" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J203" s="3">
+        <v>150</v>
+      </c>
+      <c r="K203" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="L203" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="N203" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="O203" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="P203" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q203" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="R203" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="S203" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="T203" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="U203" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="V203" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="X203" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="DZ203" s="3" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="204" spans="1:132">
+      <c r="V204" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="X204" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="205" spans="1:132">
+      <c r="V205" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="X205" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="206" spans="1:132">
+      <c r="D206" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="H206" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I206" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J206" s="3">
+        <v>200</v>
+      </c>
+      <c r="K206" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="L206" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="N206" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="O206" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="R206" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="S206" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="T206" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="U206" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="V206" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X206" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="DZ206" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="207" spans="1:132">
+      <c r="D207" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I207" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J207" s="3">
+        <v>50</v>
+      </c>
+      <c r="K207" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="L207" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="208" spans="1:132">
+      <c r="D208" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="H208" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I208" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J208" s="3">
+        <v>200</v>
+      </c>
+      <c r="K208" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="L208" s="3" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="209" spans="4:132">
+      <c r="D209" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I209" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J209" s="3">
+        <v>300</v>
+      </c>
+      <c r="K209" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="L209" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="V209" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="W209" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="X209" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z209" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="AA209" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="AP209" s="9" t="s">
+        <v>828</v>
+      </c>
+      <c r="AQ209" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="CV209" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="CW209" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="CX209" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="DX209" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="DY209" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="EB209" s="3" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="210" spans="4:132">
+      <c r="D210" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I210" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J210" s="3">
+        <v>800</v>
+      </c>
+      <c r="K210" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="L210" s="3" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="211" spans="4:132">
+      <c r="D211" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="H211" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I211" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J211" s="3">
+        <v>60</v>
+      </c>
+      <c r="K211" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="L211" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="212" spans="4:132">
+      <c r="D212" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="H212" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I212" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J212" s="3">
+        <v>60</v>
+      </c>
+      <c r="K212" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="L212" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="V212" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="W212" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="X212" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z212" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="AA212" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="DT212" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="DX212" s="14" t="s">
+        <v>838</v>
+      </c>
+      <c r="DY212" s="3" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="213" spans="4:132">
+      <c r="D213" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I213" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J213" s="3">
+        <v>40</v>
+      </c>
+      <c r="K213" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="L213" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="N213" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="O213" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="P213" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q213" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="R213" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="S213" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="T213" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="U213" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="V213" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="W213" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="X213" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y213" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="Z213" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="AA213" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="AP213" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="AQ213" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="AX213" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="AY213" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="CL213" s="15" t="s">
+        <v>853</v>
+      </c>
+      <c r="CM213" s="15" t="s">
+        <v>849</v>
+      </c>
+      <c r="CV213" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="CW213" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="DS213" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="DX213" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="DY213" s="3" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="214" spans="4:132">
+      <c r="V214" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="X214" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="215" spans="4:132">
+      <c r="V215" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="X215" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="216" spans="4:132">
+      <c r="D216" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="H216" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I216" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J216" s="3">
+        <v>50</v>
+      </c>
+      <c r="K216" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="L216" s="3" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="217" spans="4:132">
+      <c r="D217" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="H217" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="I217" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="J217" s="3">
+        <v>100</v>
+      </c>
+      <c r="K217" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="L217" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="V217" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="X217" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="218" spans="4:132">
+      <c r="V218" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="X218" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="219" spans="4:132">
+      <c r="V219" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="W219" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="X219" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y219" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="Z219" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="AA219" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="AP219" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="AQ219" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX219" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="AY219" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="CI219" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="CJ219" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="CV219" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="CW219" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="DO219" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="DS219" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="DX219" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="DY219" s="3" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="220" spans="4:132">
+      <c r="D220" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="H220" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I220" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J220" s="3">
+        <v>30</v>
+      </c>
+      <c r="K220" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="L220" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="V220" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="W220" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="X220" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z220" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="AA220" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="CX220" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="DP220" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="DT220" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="DX220" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="DY220" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="221" spans="4:132">
+      <c r="D221" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="H221" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I221" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J221" s="3">
+        <v>35</v>
+      </c>
+      <c r="K221" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="L221" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="V221" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="X221" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="222" spans="4:132">
+      <c r="V222" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="X222" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="223" spans="4:132">
+      <c r="V223" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="X223" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="224" spans="4:132">
+      <c r="V224" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="X224" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="225" spans="4:132">
+      <c r="V225" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="X225" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="226" spans="4:132">
+      <c r="D226" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I226" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J226" s="3">
+        <v>40</v>
+      </c>
+      <c r="K226" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="L226" s="3" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="227" spans="4:132">
+      <c r="D227" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I227" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J227" s="3">
+        <v>50</v>
+      </c>
+      <c r="K227" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="L227" s="3" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="228" spans="4:132">
+      <c r="D228" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I228" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J228" s="3">
+        <v>30</v>
+      </c>
+      <c r="K228" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="L228" s="3" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="229" spans="4:132">
+      <c r="D229" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I229" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J229" s="3">
+        <v>35</v>
+      </c>
+      <c r="K229" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="L229" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="N229" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="O229" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="R229" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="S229" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="T229" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U229" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="V229" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="W229" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="X229" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="CX229" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="DP229" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="DX229" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="DY229" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="DZ229" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="EA229" s="3" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="230" spans="4:132">
+      <c r="D230" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="H230" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I230" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J230" s="3">
+        <v>30</v>
+      </c>
+      <c r="K230" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="L230" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="231" spans="4:132">
+      <c r="D231" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="H231" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I231" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J231" s="3">
+        <v>30</v>
+      </c>
+      <c r="K231" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="L231" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="N231" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="O231" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="P231" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q231" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="R231" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="S231" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="T231" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="U231" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="V231" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="X231" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="DZ231" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="232" spans="4:132">
+      <c r="D232" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="H232" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I232" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J232" s="3">
+        <v>20</v>
+      </c>
+      <c r="K232" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="L232" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="V232" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="W232" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="X232" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z232" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="AA232" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="AP232" s="9" t="s">
+        <v>911</v>
+      </c>
+      <c r="AQ232" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="DX232" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="DY232" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="EB232" s="3" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="233" spans="4:132">
+      <c r="D233" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="H233" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I233" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J233" s="3">
+        <v>25</v>
+      </c>
+      <c r="K233" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="L233" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="N233" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="O233" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="P233" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q233" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="R233" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="S233" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="T233" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="U233" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="V233" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="X233" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="DZ233" s="3" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="234" spans="4:132">
+      <c r="V234" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="X234" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="DZ234" s="3" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="235" spans="4:132">
+      <c r="V235" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="X235" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="DZ235" s="3" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="236" spans="4:132">
+      <c r="D236" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="H236" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I236" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J236" s="3">
+        <v>40</v>
+      </c>
+      <c r="K236" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="L236" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="237" spans="4:132">
+      <c r="D237" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="H237" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I237" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J237" s="3">
+        <v>30</v>
+      </c>
+      <c r="K237" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="L237" s="3" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="238" spans="4:132">
+      <c r="D238" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="H238" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I238" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J238" s="3">
+        <v>20</v>
+      </c>
+      <c r="K238" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="L238" s="3" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="239" spans="4:132">
+      <c r="D239" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="H239" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I239" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J239" s="3">
+        <v>50</v>
+      </c>
+      <c r="K239" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="L239" s="3" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="240" spans="4:132">
+      <c r="D240" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="H240" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I240" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J240" s="3">
+        <v>40</v>
+      </c>
+      <c r="K240" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="L240" s="3" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="241" spans="4:132">
+      <c r="D241" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="H241" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I241" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J241" s="3">
+        <v>30</v>
+      </c>
+      <c r="K241" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="L241" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="V241" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="W241" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="X241" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z241" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="AA241" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BN241" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="BO241" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="CX241" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="DX241" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="DY241" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="EB241" s="3" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="242" spans="4:132">
+      <c r="D242" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="H242" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I242" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J242" s="3">
+        <v>30</v>
+      </c>
+      <c r="K242" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="L242" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="N242" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="O242" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="R242" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="S242" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="T242" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="U242" s="3" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="243" spans="4:132">
+      <c r="D243" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="H243" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I243" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J243" s="3">
+        <v>30</v>
+      </c>
+      <c r="K243" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="L243" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="N243" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="O243" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="P243" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q243" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="R243" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="S243" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="T243" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="U243" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="V243" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="X243" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="DZ243" s="3" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="244" spans="4:132">
+      <c r="D244" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="H244" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I244" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J244" s="3">
+        <v>55</v>
+      </c>
+      <c r="K244" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="L244" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="N244" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="O244" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="P244" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q244" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="R244" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="S244" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="T244" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="U244" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="V244" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="X244" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="DZ244" s="3" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="245" spans="4:132">
+      <c r="D245" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="H245" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I245" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J245" s="3">
+        <v>45</v>
+      </c>
+      <c r="K245" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="L245" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="V245" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="X245" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="246" spans="4:132">
+      <c r="D246" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="H246" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I246" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J246" s="3">
+        <v>40</v>
+      </c>
+      <c r="K246" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="L246" s="3" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="247" spans="4:132">
+      <c r="D247" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="H247" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I247" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J247" s="3">
+        <v>70</v>
+      </c>
+      <c r="K247" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="L247" s="3" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="248" spans="4:132">
+      <c r="D248" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="H248" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I248" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J248" s="3">
+        <v>30</v>
+      </c>
+      <c r="K248" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="L248" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="V248" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="W248" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="X248" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z248" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="AA248" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="BG248" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH248" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="CV248" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="CW248" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="CX248" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="DX248" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="DY248" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="EB248" s="3" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="249" spans="4:132">
+      <c r="D249" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="H249" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I249" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J249" s="3">
+        <v>30</v>
+      </c>
+      <c r="K249" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="L249" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="N249" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="O249" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="P249" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q249" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="R249" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="S249" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="T249" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="U249" s="3" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="250" spans="4:132">
+      <c r="D250" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="H250" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I250" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J250" s="3">
+        <v>25</v>
+      </c>
+      <c r="K250" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="L250" s="3" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="251" spans="4:132">
+      <c r="D251" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="H251" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I251" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J251" s="3">
+        <v>50</v>
+      </c>
+      <c r="K251" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="L251" s="3" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="252" spans="4:132">
+      <c r="D252" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="H252" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I252" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J252" s="3">
+        <v>50</v>
+      </c>
+      <c r="K252" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="L252" s="3" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="253" spans="4:132">
+      <c r="D253" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="H253" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I253" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J253" s="3">
+        <v>50</v>
+      </c>
+      <c r="K253" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="L253" s="3" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="254" spans="4:132">
+      <c r="D254" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="H254" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I254" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J254" s="3">
+        <v>10</v>
+      </c>
+      <c r="K254" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="L254" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="255" spans="4:132">
+      <c r="D255" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="H255" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I255" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J255" s="3">
+        <v>70</v>
+      </c>
+      <c r="K255" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="L255" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="V255" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="W255" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="X255" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z255" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA255" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="BG255" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH255" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="CX255" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="DX255" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="DY255" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="EB255" s="3" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="256" spans="4:132" ht="13.8" customHeight="1">
+      <c r="D256" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="H256" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I256" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J256" s="3">
+        <v>100</v>
+      </c>
+      <c r="K256" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="L256" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="N256" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="O256" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="R256" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="S256" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="T256" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="U256" s="3" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="257" spans="1:132">
+      <c r="D257" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="H257" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I257" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J257" s="3">
+        <v>200</v>
+      </c>
+      <c r="K257" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="L257" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="V257" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="W257" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="X257" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z257" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="AA257" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="BT257" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="BU257" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="DO257" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="DX257" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="DY257" s="3" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="258" spans="1:132">
+      <c r="D258" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="H258" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I258" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J258" s="3">
+        <v>300</v>
+      </c>
+      <c r="K258" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="L258" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="N258" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="O258" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="P258" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q258" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="R258" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="S258" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="T258" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="U258" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="259" spans="1:132">
+      <c r="D259" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H259" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I259" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J259" s="3">
+        <v>35</v>
+      </c>
+      <c r="K259" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="L259" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="260" spans="1:132">
+      <c r="D260" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H260" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I260" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J260" s="3">
+        <v>110</v>
+      </c>
+      <c r="K260" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="L260" s="3" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="261" spans="1:132">
+      <c r="D261" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H261" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I261" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J261" s="3">
+        <v>350</v>
+      </c>
+      <c r="K261" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="L261" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="V261" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="W261" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="X261" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y261" s="5"/>
+      <c r="Z261" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AA261" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB261" s="5"/>
+      <c r="AC261" s="5"/>
+      <c r="AD261" s="5"/>
+      <c r="AE261" s="5"/>
+      <c r="AF261" s="5"/>
+      <c r="AG261" s="5"/>
+      <c r="AH261" s="5"/>
+      <c r="AI261" s="5"/>
+      <c r="AJ261" s="5"/>
+      <c r="AK261" s="5"/>
+      <c r="AL261" s="5"/>
+      <c r="AM261" s="5"/>
+      <c r="AN261" s="5"/>
+      <c r="AO261" s="5"/>
+      <c r="AP261" s="8" t="s">
+        <v>828</v>
+      </c>
+      <c r="AQ261" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="AR261" s="5"/>
+      <c r="AS261" s="5"/>
+      <c r="AT261" s="5"/>
+      <c r="AU261" s="5"/>
+      <c r="AV261" s="5"/>
+      <c r="AW261" s="5"/>
+      <c r="AX261" s="5"/>
+      <c r="AY261" s="5"/>
+      <c r="AZ261" s="5"/>
+      <c r="BA261" s="5"/>
+      <c r="BB261" s="5"/>
+      <c r="BC261" s="5"/>
+      <c r="BD261" s="5"/>
+      <c r="BE261" s="5"/>
+      <c r="BF261" s="5"/>
+      <c r="BG261" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH261" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="BI261" s="5"/>
+      <c r="BJ261" s="5"/>
+      <c r="BK261" s="5"/>
+      <c r="BL261" s="5"/>
+      <c r="BM261" s="5"/>
+      <c r="BN261" s="5"/>
+      <c r="BO261" s="5"/>
+      <c r="BP261" s="5"/>
+      <c r="BQ261" s="5"/>
+      <c r="BR261" s="5"/>
+      <c r="BS261" s="5"/>
+      <c r="BT261" s="5"/>
+      <c r="BU261" s="5"/>
+      <c r="BV261" s="5"/>
+      <c r="BW261" s="5"/>
+      <c r="BX261" s="5"/>
+      <c r="BY261" s="5"/>
+      <c r="BZ261" s="5"/>
+      <c r="CA261" s="5"/>
+      <c r="CB261" s="5"/>
+      <c r="CC261" s="5"/>
+      <c r="CD261" s="5"/>
+      <c r="CE261" s="5"/>
+      <c r="CF261" s="5"/>
+      <c r="CG261" s="5"/>
+      <c r="CH261" s="5"/>
+      <c r="CI261" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="CJ261" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="CK261" s="5"/>
+      <c r="CL261" s="5"/>
+      <c r="CM261" s="5"/>
+      <c r="CN261" s="5"/>
+      <c r="CO261" s="5"/>
+      <c r="CP261" s="5"/>
+      <c r="CQ261" s="5"/>
+      <c r="CR261" s="5"/>
+      <c r="CS261" s="5"/>
+      <c r="CT261" s="5"/>
+      <c r="CU261" s="5"/>
+      <c r="CV261" s="5"/>
+      <c r="CW261" s="5"/>
+      <c r="CX261" s="5"/>
+      <c r="CY261" s="5"/>
+      <c r="CZ261" s="5"/>
+      <c r="DA261" s="5"/>
+      <c r="DB261" s="5"/>
+      <c r="DC261" s="5"/>
+      <c r="DD261" s="5"/>
+      <c r="DE261" s="5"/>
+      <c r="DF261" s="5"/>
+      <c r="DG261" s="5"/>
+      <c r="DH261" s="5"/>
+      <c r="DI261" s="5"/>
+      <c r="DJ261" s="5"/>
+      <c r="DK261" s="5"/>
+      <c r="DL261" s="5"/>
+      <c r="DM261" s="5"/>
+      <c r="DN261" s="5"/>
+      <c r="DO261" s="5"/>
+      <c r="DP261" s="5"/>
+      <c r="DQ261" s="5"/>
+      <c r="DR261" s="5"/>
+      <c r="DS261" s="5"/>
+      <c r="DT261" s="5"/>
+      <c r="DU261" s="5"/>
+      <c r="DV261" s="5"/>
+      <c r="DW261" s="5"/>
+      <c r="DX261" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="DY261" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="DZ261" s="5"/>
+      <c r="EA261" s="5"/>
+      <c r="EB261" s="5" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="262" spans="1:132">
+      <c r="A262" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="263" spans="1:132">
+      <c r="D263" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H263" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I263" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J263" s="3">
+        <v>50</v>
+      </c>
+      <c r="K263" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="L263" s="3" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="264" spans="1:132">
+      <c r="D264" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H264" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I264" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J264" s="3">
+        <v>130</v>
+      </c>
+      <c r="K264" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="L264" s="3" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="265" spans="1:132">
+      <c r="D265" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="H265" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I265" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J265" s="3">
+        <v>70</v>
+      </c>
+      <c r="K265" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L265" s="3" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="266" spans="1:132">
+      <c r="D266" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H266" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I266" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J266" s="3">
+        <v>50</v>
+      </c>
+      <c r="K266" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="L266" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="V266" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="X266" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="267" spans="1:132">
+      <c r="V267" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="X267" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="268" spans="1:132">
+      <c r="D268" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H268" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I268" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J268" s="3">
+        <v>150</v>
+      </c>
+      <c r="K268" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="L268" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="269" spans="1:132">
+      <c r="D269" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H269" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I269" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J269" s="3">
+        <v>120</v>
+      </c>
+      <c r="K269" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="L269" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="V269" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="X269" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="270" spans="1:132">
+      <c r="D270" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H270" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I270" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J270" s="3">
+        <v>180</v>
+      </c>
+      <c r="K270" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="L270" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="V270" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="X270" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="271" spans="1:132">
+      <c r="V271" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="X271" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="272" spans="1:132">
+      <c r="V272" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="X272" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="273" spans="4:129">
+      <c r="V273" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="X273" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="274" spans="4:129">
+      <c r="D274" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H274" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I274" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J274" s="3">
+        <v>200</v>
+      </c>
+      <c r="K274" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L274" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="V274" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="W274" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="X274" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z274" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AA274" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP274" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="AQ274" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="BG274" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="BH274" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="DO274" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="DX274" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="DY274" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="275" spans="4:129">
+      <c r="D275" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H275" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I275" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J275" s="3">
+        <v>159</v>
+      </c>
+      <c r="K275" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="L275" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="276" spans="4:129">
+      <c r="D276" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H276" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I276" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J276" s="3">
+        <v>100</v>
+      </c>
+      <c r="K276" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="L276" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="V276" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="X276" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="277" spans="4:129">
+      <c r="V277" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="X277" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="278" spans="4:129">
+      <c r="D278" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H278" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I278" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J278" s="3">
+        <v>200</v>
+      </c>
+      <c r="K278" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L278" s="3" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="279" spans="4:129">
+      <c r="D279" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H279" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I279" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J279" s="3">
+        <v>120</v>
+      </c>
+      <c r="K279" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="L279" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="V279" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="X279" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="280" spans="4:129">
+      <c r="V280" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="X280" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="281" spans="4:129">
+      <c r="D281" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H281" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I281" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J281" s="3">
+        <v>90</v>
+      </c>
+      <c r="K281" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L281" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="V281" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="X281" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="282" spans="4:129">
+      <c r="V282" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="X282" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="283" spans="4:129">
+      <c r="V283" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="X283" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="284" spans="4:129">
+      <c r="V284" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="X284" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="285" spans="4:129">
+      <c r="D285" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H285" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I285" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J285" s="3">
+        <v>230</v>
+      </c>
+      <c r="K285" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="L285" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="V285" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="X285" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="286" spans="4:129">
+      <c r="V286" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="X286" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q94" r:id="rId1" xr:uid="{0446B297-263C-4DEC-BE21-7E855D800AAA}"/>
+    <hyperlink ref="BU94" r:id="rId2" xr:uid="{F06C76E2-0A74-414B-9F91-CD87AA24B888}"/>
+    <hyperlink ref="Q98" r:id="rId3" xr:uid="{0D4F7FF8-535F-462F-9FAA-02A80F6B2090}"/>
+    <hyperlink ref="Q99" r:id="rId4" xr:uid="{A95167C0-7B19-48E8-842C-FB5E86C1F27F}"/>
+    <hyperlink ref="Q102" r:id="rId5" xr:uid="{5A9B62D1-C024-4084-9031-8AA07D7C0402}"/>
+    <hyperlink ref="Q103" r:id="rId6" xr:uid="{897A8EDF-25BB-493C-A47E-EE217C4338AC}"/>
+    <hyperlink ref="BH165" r:id="rId7" xr:uid="{2E60CE5A-ACBC-4F61-8589-AC9D94397201}"/>
+    <hyperlink ref="AA167" r:id="rId8" xr:uid="{21983CC5-47DC-4CC0-B6B4-C2C6E378FFB6}"/>
+    <hyperlink ref="AA209" r:id="rId9" xr:uid="{834F64DD-B5BA-4C10-885C-503E56710C03}"/>
+    <hyperlink ref="BO241" r:id="rId10" xr:uid="{7D0707B8-1102-4633-BCA9-55F64DD6B9C6}"/>
+    <hyperlink ref="BH255" r:id="rId11" xr:uid="{8F6A113C-B421-4B3A-9346-E51C4743F72B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>